--- a/NYSE_profit_제약.xlsx
+++ b/NYSE_profit_제약.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>LLY</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>CELG RT</t>
+  </si>
+  <si>
+    <t>GSK WI</t>
+  </si>
+  <si>
+    <t>HLN</t>
+  </si>
+  <si>
+    <t>HLN WI</t>
   </si>
   <si>
     <t>MRK WI</t>
@@ -455,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.274200439453125</v>
+        <v>-0.2795639038085938</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -663,7 +672,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-18.77153015136719</v>
+        <v>-18.73715209960938</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -679,6 +688,21 @@
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
